--- a/TestData/browser.xlsx
+++ b/TestData/browser.xlsx
@@ -31,7 +31,7 @@
     <t xml:space="preserve">url</t>
   </si>
   <si>
-    <t xml:space="preserve">chrome</t>
+    <t xml:space="preserve">Chrome</t>
   </si>
   <si>
     <t xml:space="preserve">webdriver.chrome.driver</t>
@@ -226,7 +226,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C12" activeCellId="0" sqref="C12"/>
+      <selection pane="topLeft" activeCell="B13" activeCellId="0" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
